--- a/F79_truncated/results_f79_suplin.xlsx
+++ b/F79_truncated/results_f79_suplin.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -12,6 +12,10 @@
     <sheet name="time_4" sheetId="5" r:id="rId7"/>
     <sheet name="niter_4" sheetId="6" r:id="rId8"/>
     <sheet name="f_val_4" sheetId="7" r:id="rId9"/>
+    <sheet name="time5" sheetId="8" r:id="rId10"/>
+    <sheet name="niter_5" sheetId="9" r:id="rId11"/>
+    <sheet name="f_val_5" sheetId="10" r:id="rId12"/>
+    <sheet name="ExactComparison" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>Row</t>
   </si>
@@ -49,12 +53,303 @@
   </si>
   <si>
     <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Avergae Time</t>
+  </si>
+  <si>
+    <t>Avergae Iter</t>
+  </si>
+  <si>
+    <t>Average fval</t>
+  </si>
+  <si>
+    <t>n=10^3</t>
+  </si>
+  <si>
+    <t>n=10^4</t>
+  </si>
+  <si>
+    <t>n=10^5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -69,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -78,18 +373,206 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.37890625" customWidth="true"/>
+    <col min="4" max="4" width="15.37890625" customWidth="true"/>
+    <col min="5" max="5" width="15.37890625" customWidth="true"/>
+    <col min="6" max="6" width="15.37890625" customWidth="true"/>
+    <col min="7" max="7" width="15.37890625" customWidth="true"/>
+    <col min="8" max="8" width="15.37890625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.00016494916436526267</v>
+      </c>
+      <c r="C2" s="0">
+        <v>2.6663418031219731e-12</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1.2648304851621605e-13</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1.2639403871504364e-13</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1.2639403047851381e-13</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1.2639403057229465e-13</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1.2639403062676342e-13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.01648114795634301</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1.7395264663505948e-10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1.2728610542450276e-13</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1.2639411908054957e-13</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1.2639403077333453e-13</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1.2639402989737283e-13</v>
+      </c>
+      <c r="H3" s="0">
+        <v>1.2639403062676342e-13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.15625" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="10.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.16137196363636364</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1.8964861300000002</v>
+      </c>
+      <c r="D2" s="0">
+        <v>20.058637570000005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1072.2727272727273</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1134</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1197.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1.3041650504114601e-13</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1.2763576157784334e-13</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1.2639403062676342e-13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -100,92 +583,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="true"/>
-    <col min="2" max="2" width="11.5546875" customWidth="true"/>
-    <col min="3" max="3" width="12.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
-    <col min="5" max="5" width="11.5546875" customWidth="true"/>
-    <col min="6" max="6" width="11.5546875" customWidth="true"/>
-    <col min="7" max="7" width="11.5546875" customWidth="true"/>
-    <col min="8" max="8" width="12.5546875" customWidth="true"/>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0">
-        <v>1.2263034454545456</v>
+        <v>0.2729618909090909</v>
       </c>
       <c r="C2" s="0">
-        <v>0.9620334727272728</v>
+        <v>0.26145289090909091</v>
       </c>
       <c r="D2" s="0">
-        <v>1.1336289636363637</v>
+        <v>0.26119470909090908</v>
       </c>
       <c r="E2" s="0">
-        <v>1.3263721727272728</v>
+        <v>0.26289734545454546</v>
       </c>
       <c r="F2" s="0">
-        <v>1.2427976727272727</v>
+        <v>0.26057543636363634</v>
       </c>
       <c r="G2" s="0">
-        <v>1.0594833636363636</v>
+        <v>0.26006242727272721</v>
       </c>
       <c r="H2" s="0">
-        <v>0.69775144545454559</v>
+        <v>0.16137196363636364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0030167545454547</v>
+        <v>0.2747483272727273</v>
       </c>
       <c r="C3" s="0">
-        <v>0.94313146363636347</v>
+        <v>0.27128800909090905</v>
       </c>
       <c r="D3" s="0">
-        <v>1.3250652636363633</v>
+        <v>0.27154288181818181</v>
       </c>
       <c r="E3" s="0">
-        <v>1.3464133636363638</v>
+        <v>0.27036450909090903</v>
       </c>
       <c r="F3" s="0">
-        <v>1.2271979818181815</v>
+        <v>0.27074442727272729</v>
       </c>
       <c r="G3" s="0">
-        <v>1.1016981454545456</v>
+        <v>0.27112004545454543</v>
       </c>
       <c r="H3" s="0">
-        <v>0.69775144545454559</v>
+        <v>0.16137196363636364</v>
       </c>
     </row>
   </sheetData>
@@ -200,45 +683,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="true"/>
-    <col min="2" max="2" width="11.5546875" customWidth="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
-    <col min="5" max="5" width="11.5546875" customWidth="true"/>
-    <col min="6" max="6" width="11.5546875" customWidth="true"/>
-    <col min="7" max="7" width="11.5546875" customWidth="true"/>
-    <col min="8" max="8" width="11.5546875" customWidth="true"/>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0">
         <v>1073.7272727272727</v>
@@ -264,7 +747,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0">
         <v>1071.2727272727273</v>
@@ -300,92 +783,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="true"/>
-    <col min="2" max="2" width="15.21875" customWidth="true"/>
-    <col min="3" max="3" width="14.21875" customWidth="true"/>
-    <col min="4" max="4" width="15.21875" customWidth="true"/>
-    <col min="5" max="5" width="14.21875" customWidth="true"/>
-    <col min="6" max="6" width="15.21875" customWidth="true"/>
-    <col min="7" max="7" width="15.21875" customWidth="true"/>
-    <col min="8" max="8" width="15.21875" customWidth="true"/>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="15.37890625" customWidth="true"/>
+    <col min="3" max="3" width="14.37890625" customWidth="true"/>
+    <col min="4" max="4" width="15.37890625" customWidth="true"/>
+    <col min="5" max="5" width="15.37890625" customWidth="true"/>
+    <col min="6" max="6" width="15.37890625" customWidth="true"/>
+    <col min="7" max="7" width="15.37890625" customWidth="true"/>
+    <col min="8" max="8" width="14.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0">
-        <v>1.6484851538583243e-06</v>
+        <v>1.6484851538570629e-06</v>
       </c>
       <c r="C2" s="0">
-        <v>2.2828107800774672e-13</v>
+        <v>2.2828107695685192e-13</v>
       </c>
       <c r="D2" s="0">
-        <v>1.3047717744072976e-13</v>
+        <v>1.3047717793081448e-13</v>
       </c>
       <c r="E2" s="0">
-        <v>1.3041706304493063e-13</v>
+        <v>1.3041706261273598e-13</v>
       </c>
       <c r="F2" s="0">
-        <v>1.3041651037243075e-13</v>
+        <v>1.304165104454226e-13</v>
       </c>
       <c r="G2" s="0">
-        <v>1.3041650527263112e-13</v>
+        <v>1.3041650492490252e-13</v>
       </c>
       <c r="H2" s="0">
-        <v>1.3041650491519612e-13</v>
+        <v>1.3041650504114601e-13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0">
-        <v>0.00016359106710304468</v>
+        <v>0.00016359106710303918</v>
       </c>
       <c r="C3" s="0">
-        <v>2.5676048734104792e-12</v>
+        <v>2.5676048766142204e-12</v>
       </c>
       <c r="D3" s="0">
-        <v>1.3052443950538696e-13</v>
+        <v>1.3052443907413005e-13</v>
       </c>
       <c r="E3" s="0">
-        <v>1.3041679994341882e-13</v>
+        <v>1.304167996911953e-13</v>
       </c>
       <c r="F3" s="0">
-        <v>1.3041650785609707e-13</v>
+        <v>1.304165078901286e-13</v>
       </c>
       <c r="G3" s="0">
-        <v>1.3041650470940776e-13</v>
+        <v>1.3041650481024268e-13</v>
       </c>
       <c r="H3" s="0">
-        <v>1.3041650491519612e-13</v>
+        <v>1.3041650504114601e-13</v>
       </c>
     </row>
   </sheetData>
@@ -400,92 +883,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="true"/>
-    <col min="2" max="2" width="11.5546875" customWidth="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
-    <col min="5" max="5" width="11.5546875" customWidth="true"/>
-    <col min="6" max="6" width="11.5546875" customWidth="true"/>
-    <col min="7" max="7" width="11.5546875" customWidth="true"/>
-    <col min="8" max="8" width="10.5546875" customWidth="true"/>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="10.7109375" customWidth="true"/>
+    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="7" max="7" width="10.7109375" customWidth="true"/>
+    <col min="8" max="8" width="10.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0">
-        <v>17.803822910000001</v>
+        <v>2.9740050099999999</v>
       </c>
       <c r="C2" s="0">
-        <v>20.847325089999998</v>
+        <v>2.9164843399999998</v>
       </c>
       <c r="D2" s="0">
-        <v>19.343947169999996</v>
+        <v>2.9544612199999998</v>
       </c>
       <c r="E2" s="0">
-        <v>18.112300580000003</v>
+        <v>2.98089526</v>
       </c>
       <c r="F2" s="0">
-        <v>18.13106204</v>
+        <v>2.9841767800000003</v>
       </c>
       <c r="G2" s="0">
-        <v>18.257492320000001</v>
+        <v>2.9555639600000001</v>
       </c>
       <c r="H2" s="0">
-        <v>12.4623402</v>
+        <v>1.8964861300000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0">
-        <v>20.080492850000002</v>
+        <v>3.0183639499999999</v>
       </c>
       <c r="C3" s="0">
-        <v>21.563026429999994</v>
+        <v>3.0437166500000004</v>
       </c>
       <c r="D3" s="0">
-        <v>19.232054429999998</v>
+        <v>3.02322179</v>
       </c>
       <c r="E3" s="0">
-        <v>18.835473010000001</v>
+        <v>3.0745370599999999</v>
       </c>
       <c r="F3" s="0">
-        <v>18.89144885</v>
+        <v>3.0686141499999997</v>
       </c>
       <c r="G3" s="0">
-        <v>18.602958570000002</v>
+        <v>3.0488659899999999</v>
       </c>
       <c r="H3" s="0">
-        <v>12.4623402</v>
+        <v>1.8964861300000002</v>
       </c>
     </row>
   </sheetData>
@@ -500,45 +983,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="true"/>
-    <col min="2" max="2" width="6.6640625" customWidth="true"/>
-    <col min="3" max="3" width="6.6640625" customWidth="true"/>
-    <col min="4" max="4" width="6.6640625" customWidth="true"/>
-    <col min="5" max="5" width="6.6640625" customWidth="true"/>
-    <col min="6" max="6" width="7.6640625" customWidth="true"/>
-    <col min="7" max="7" width="7.6640625" customWidth="true"/>
-    <col min="8" max="8" width="5.44140625" customWidth="true"/>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.82421875" customWidth="true"/>
+    <col min="3" max="3" width="6.82421875" customWidth="true"/>
+    <col min="4" max="4" width="6.82421875" customWidth="true"/>
+    <col min="5" max="5" width="6.82421875" customWidth="true"/>
+    <col min="6" max="6" width="7.82421875" customWidth="true"/>
+    <col min="7" max="7" width="7.82421875" customWidth="true"/>
+    <col min="8" max="8" width="5.6015625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0">
         <v>1134.8</v>
@@ -564,7 +1047,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0">
         <v>1130.5999999999999</v>
@@ -600,92 +1083,286 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="true"/>
-    <col min="2" max="2" width="14.21875" customWidth="true"/>
-    <col min="3" max="3" width="15.21875" customWidth="true"/>
-    <col min="4" max="4" width="15.21875" customWidth="true"/>
-    <col min="5" max="5" width="15.21875" customWidth="true"/>
-    <col min="6" max="6" width="15.21875" customWidth="true"/>
-    <col min="7" max="7" width="15.21875" customWidth="true"/>
-    <col min="8" max="8" width="15.21875" customWidth="true"/>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="14.37890625" customWidth="true"/>
+    <col min="3" max="3" width="15.37890625" customWidth="true"/>
+    <col min="4" max="4" width="14.37890625" customWidth="true"/>
+    <col min="5" max="5" width="15.37890625" customWidth="true"/>
+    <col min="6" max="6" width="15.37890625" customWidth="true"/>
+    <col min="7" max="7" width="15.37890625" customWidth="true"/>
+    <col min="8" max="8" width="15.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B2" s="0">
-        <v>1.6495248802065248e-05</v>
+        <v>1.6495248802062019e-05</v>
       </c>
       <c r="C2" s="0">
-        <v>5.7249521978732892e-13</v>
+        <v>5.7249522048469155e-13</v>
       </c>
       <c r="D2" s="0">
-        <v>1.276632938373452e-13</v>
+        <v>1.2766329398243509e-13</v>
       </c>
       <c r="E2" s="0">
-        <v>1.2763575942739902e-13</v>
+        <v>1.2763575971061437e-13</v>
       </c>
       <c r="F2" s="0">
-        <v>1.2763576144785045e-13</v>
+        <v>1.2763576160104802e-13</v>
       </c>
       <c r="G2" s="0">
-        <v>1.2763576137959812e-13</v>
+        <v>1.2763576129681953e-13</v>
       </c>
       <c r="H2" s="0">
-        <v>1.2763576168309722e-13</v>
+        <v>1.2763576157784334e-13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0016470178796696097</v>
+        <v>0.0016470178796696214</v>
       </c>
       <c r="C3" s="0">
-        <v>1.9403903355619124e-11</v>
+        <v>1.9403903350986001e-11</v>
       </c>
       <c r="D3" s="0">
-        <v>1.2791523946225778e-13</v>
+        <v>1.2791523944351659e-13</v>
       </c>
       <c r="E3" s="0">
-        <v>1.2763578692002413e-13</v>
+        <v>1.2763578686353704e-13</v>
       </c>
       <c r="F3" s="0">
-        <v>1.276357612186135e-13</v>
+        <v>1.2763576156989995e-13</v>
       </c>
       <c r="G3" s="0">
-        <v>1.276357614355195e-13</v>
+        <v>1.276357614219097e-13</v>
       </c>
       <c r="H3" s="0">
-        <v>1.2763576168309722e-13</v>
+        <v>1.2763576157784334e-13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="0">
+        <v>33.308860889999998</v>
+      </c>
+      <c r="C2" s="0">
+        <v>33.895757379999999</v>
+      </c>
+      <c r="D2" s="0">
+        <v>34.145629589999999</v>
+      </c>
+      <c r="E2" s="0">
+        <v>33.736344460000005</v>
+      </c>
+      <c r="F2" s="0">
+        <v>33.637807630000005</v>
+      </c>
+      <c r="G2" s="0">
+        <v>34.063183380000005</v>
+      </c>
+      <c r="H2" s="0">
+        <v>20.058637570000005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="0">
+        <v>34.545832570000002</v>
+      </c>
+      <c r="C3" s="0">
+        <v>35.28636178</v>
+      </c>
+      <c r="D3" s="0">
+        <v>34.639921360000002</v>
+      </c>
+      <c r="E3" s="0">
+        <v>34.547747279999996</v>
+      </c>
+      <c r="F3" s="0">
+        <v>34.455255180000002</v>
+      </c>
+      <c r="G3" s="0">
+        <v>34.558121289999995</v>
+      </c>
+      <c r="H3" s="0">
+        <v>20.058637570000005</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.82421875" customWidth="true"/>
+    <col min="3" max="3" width="6.82421875" customWidth="true"/>
+    <col min="4" max="4" width="6.82421875" customWidth="true"/>
+    <col min="5" max="5" width="6.82421875" customWidth="true"/>
+    <col min="6" max="6" width="7.82421875" customWidth="true"/>
+    <col min="7" max="7" width="7.82421875" customWidth="true"/>
+    <col min="8" max="8" width="6.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1197.3</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1197.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1197.5</v>
+      </c>
+      <c r="H3" s="0">
+        <v>1197.5</v>
       </c>
     </row>
   </sheetData>
